--- a/AMC_examples_data/AMC_examples_data_ex14.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4395620-1C1C-46DC-9760-49C5C6ACF4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412AE6A-8C7F-469E-87F4-7348DEF4195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F28914-79CE-4C5A-92B2-E41C9BEF8F7E}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>

--- a/AMC_examples_data/AMC_examples_data_ex14.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412AE6A-8C7F-469E-87F4-7348DEF4195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC8D76-BE0C-4F8F-A409-0CB42073165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="U3" sqref="U3:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,34 +579,28 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
         <v>3</v>
-      </c>
-      <c r="U2">
-        <v>66</v>
-      </c>
-      <c r="V2">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -614,22 +608,28 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-5</v>
+      </c>
+      <c r="U3">
+        <v>66</v>
+      </c>
+      <c r="V3">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
